--- a/BPS_FH_Dataset/17/phrases.xlsx
+++ b/BPS_FH_Dataset/17/phrases.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Desktop\Data Set\BPS Dataset\17 x\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Documents\GitHub\functional-harmony\BPS_FH_Dataset\17\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFB6DF2-EC9D-40CD-98D3-51E2C73B1F6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16995" windowHeight="8100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17000" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -241,7 +242,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -606,19 +607,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -635,7 +636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>7</v>
       </c>
@@ -652,7 +653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>24</v>
       </c>
@@ -669,7 +670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>31</v>
       </c>
@@ -687,7 +688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>80</v>
       </c>
@@ -704,7 +705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>96</v>
       </c>
@@ -721,7 +722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>112</v>
       </c>
@@ -738,7 +739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>128</v>
       </c>
@@ -755,7 +756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>144</v>
       </c>
@@ -772,7 +773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>163</v>
       </c>
@@ -789,7 +790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>179</v>
       </c>
@@ -806,7 +807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>195</v>
       </c>
@@ -823,7 +824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>217</v>
       </c>
@@ -840,7 +841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>249</v>
       </c>
@@ -857,7 +858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>272</v>
       </c>
@@ -874,7 +875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>296</v>
       </c>
@@ -891,7 +892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>304</v>
       </c>
@@ -908,7 +909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>312</v>
       </c>
@@ -925,7 +926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>320</v>
       </c>
@@ -942,7 +943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>328</v>
       </c>
@@ -959,7 +960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>336</v>
       </c>
@@ -976,7 +977,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>360</v>
       </c>
@@ -993,7 +994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>368</v>
       </c>
@@ -1010,7 +1011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>375</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>392</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>399</v>
       </c>
@@ -1061,7 +1062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>448</v>
       </c>
@@ -1078,7 +1079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>464</v>
       </c>
@@ -1095,7 +1096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>480</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>496</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>512</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>531</v>
       </c>
@@ -1163,7 +1164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>547</v>
       </c>
@@ -1180,7 +1181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>563</v>
       </c>
@@ -1197,7 +1198,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>585</v>
       </c>
@@ -1214,7 +1215,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>617</v>
       </c>
@@ -1231,7 +1232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>640</v>
       </c>
@@ -1248,7 +1249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>664</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>672</v>
       </c>
@@ -1282,7 +1283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>680</v>
       </c>
@@ -1299,7 +1300,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>688</v>
       </c>
@@ -1316,7 +1317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>696</v>
       </c>
@@ -1333,7 +1334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>704</v>
       </c>
@@ -1350,7 +1351,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>728</v>
       </c>
@@ -1367,7 +1368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="17.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>736</v>
       </c>
@@ -1384,7 +1385,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>744</v>
       </c>
@@ -1401,7 +1402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>752</v>
       </c>
@@ -1418,7 +1419,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>760</v>
       </c>
@@ -1435,7 +1436,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>776</v>
       </c>
@@ -1452,7 +1453,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>792</v>
       </c>
@@ -1469,7 +1470,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>808</v>
       </c>
@@ -1486,7 +1487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>824</v>
       </c>
@@ -1503,7 +1504,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>840</v>
       </c>
@@ -1520,7 +1521,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>852</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>868</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>884</v>
       </c>
@@ -1571,7 +1572,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>896</v>
       </c>
@@ -1588,7 +1589,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="5">
         <v>920</v>
       </c>
@@ -1605,7 +1606,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="17.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>936</v>
       </c>
@@ -1622,7 +1623,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>959</v>
       </c>
@@ -1639,7 +1640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>976</v>
       </c>
@@ -1656,7 +1657,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>1000</v>
       </c>
@@ -1673,7 +1674,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>1016</v>
       </c>
@@ -1690,7 +1691,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>1032</v>
       </c>
@@ -1707,7 +1708,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>1051</v>
       </c>
@@ -1724,7 +1725,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>1067</v>
       </c>
@@ -1741,7 +1742,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>1083</v>
       </c>
@@ -1758,7 +1759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>1105</v>
       </c>
@@ -1775,9 +1776,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
-        <v>1037</v>
+        <v>1137</v>
       </c>
       <c r="B69" s="1">
         <v>1160.5</v>
@@ -1792,7 +1793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>1160</v>
       </c>
@@ -1809,7 +1810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>1184</v>
       </c>
@@ -1826,7 +1827,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>1192</v>
       </c>
@@ -1843,7 +1844,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>1200</v>
       </c>
@@ -1860,7 +1861,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>1208</v>
       </c>
@@ -1877,7 +1878,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>1216</v>
       </c>
@@ -1894,7 +1895,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>1224</v>
       </c>
